--- a/CG Lab Project Submission Checklist.xlsx
+++ b/CG Lab Project Submission Checklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Project Name:</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>S8. Particle system</t>
+  </si>
+  <si>
+    <t>Particles and the sky are not included in Phong Shader</t>
   </si>
 </sst>
 </file>
@@ -514,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1101,7 +1104,9 @@
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1227,7 +1232,9 @@
       <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1574,7 +1581,9 @@
       <c r="B34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
